--- a/21_住所録.xlsx
+++ b/21_住所録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D624B7D9-A33F-4FFB-A989-0E7A31B02623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0A1C4B-4EB9-408B-9868-541F40EEFA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0580D34D-840F-410D-A87F-3650F3BCA185}"/>
   </bookViews>
@@ -606,7 +606,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13E02FF6-AF8F-4F21-86B9-B941C4750EED}" name="テーブル1" displayName="テーブル1" ref="A1:H16" totalsRowShown="0">
   <autoFilter ref="A1:H16" xr:uid="{13E02FF6-AF8F-4F21-86B9-B941C4750EED}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{28D7DBED-246A-4C1A-B280-7828A5AE2718}" name="NO"/>
+    <tableColumn id="1" xr3:uid="{28D7DBED-246A-4C1A-B280-7828A5AE2718}" name="NO">
+      <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" xr3:uid="{0402C00B-8FF6-473E-9B01-586F1A0056E5}" name="指名"/>
     <tableColumn id="3" xr3:uid="{042503EE-AD70-4708-8B66-E0C948290221}" name="連名"/>
     <tableColumn id="4" xr3:uid="{2D32F4D6-1607-43DA-9CFF-D6096BA30193}" name="郵便番号"/>
@@ -918,7 +920,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16E198-B70E-4341-AD07-367B037E4C1D}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -957,6 +961,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
+        <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -980,6 +985,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
+        <f t="shared" ref="A3:A16" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1000,6 +1006,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1022,6 +1029,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -1039,6 +1050,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -1053,6 +1068,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -1073,6 +1092,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
@@ -1093,6 +1116,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>35</v>
       </c>
@@ -1113,6 +1140,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
@@ -1127,6 +1158,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
@@ -1141,6 +1176,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -1155,6 +1194,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
         <v>39</v>
       </c>
@@ -1169,6 +1212,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
         <v>40</v>
       </c>
@@ -1186,6 +1233,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="B15" t="s">
         <v>42</v>
       </c>
@@ -1200,6 +1251,10 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
         <v>43</v>
       </c>
